--- a/Resultados/Material + Ano/ResNet/Tentativa 1/Do Zero.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 1/Do Zero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF702D-6AA2-4E79-BD44-D4A5DFA52F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE1D77-ABD1-4280-99D9-2667BE94666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -273,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,10 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -522,14 +526,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -539,6 +541,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,7 +653,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -660,12 +672,16 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -678,12 +694,16 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -696,12 +716,16 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -714,8 +738,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -735,7 +757,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color auto="1"/>
@@ -746,8 +768,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -835,10 +855,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB28B50-D75A-CC10-E2F7-C2E8F3E5A8CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82F47B5-176F-1B30-6501-C1EFA2E9772C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,16 +904,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>87311</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9387861F-1136-2558-0D0B-F406C907C154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6953FE3F-7A40-B87E-5DBE-402BB05BC8B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +968,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBE3F93-E348-E98C-6E01-32C1DFAAC5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A2D575-D6D8-3498-F491-DC3972FC9F0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1023,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB70927-F433-04CD-60A7-A02A3AA086C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385DD38C-78F8-7C3C-D2B7-ADFBC661A603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,7 +1078,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9233DF8B-442E-17D8-1ECD-8B37DED3190D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92F783D-4425-43DC-55B7-AAF2AEBC362D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1133,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318D6396-0802-5E3A-B1E8-77157FA4D1BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFD8C06-F89D-CD37-374D-360C7D2B32D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1188,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3254AA-E9E1-0575-0D29-EED0B23CADBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56302CB5-C610-09C8-2F88-C04700B3B7E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1573,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E8" activeCellId="3" sqref="B2 C11 D2 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1583,17 +1603,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>17.82459831237793</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.78594928979873657</v>
-      </c>
-      <c r="D2" s="8">
-        <v>10.376626968383791</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.81240308284759521</v>
+      <c r="B2" s="49">
+        <v>0.8408735990524292</v>
+      </c>
+      <c r="C2" s="48">
+        <v>0.81265723705291748</v>
+      </c>
+      <c r="D2" s="49">
+        <v>0.46300649642944341</v>
+      </c>
+      <c r="E2" s="48">
+        <v>0.85116279125213623</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1601,16 +1621,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>16.09050369262695</v>
+        <v>0.67956143617630005</v>
       </c>
       <c r="C3" s="2">
-        <v>0.81826978921890259</v>
+        <v>0.82175344228744507</v>
       </c>
       <c r="D3" s="2">
-        <v>20.339353561401371</v>
+        <v>0.44861361384391779</v>
       </c>
       <c r="E3" s="2">
-        <v>0.86046510934829712</v>
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1618,16 +1638,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>11.755458831787109</v>
+        <v>0.61123871803283691</v>
       </c>
       <c r="C4" s="2">
-        <v>0.85620284080505371</v>
+        <v>0.8296884298324585</v>
       </c>
       <c r="D4" s="2">
-        <v>23.833311080932621</v>
+        <v>0.44972804188728333</v>
       </c>
       <c r="E4" s="2">
-        <v>0.85891473293304443</v>
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1635,16 +1655,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>7.9840717315673828</v>
+        <v>0.56626421213150024</v>
       </c>
       <c r="C5" s="2">
-        <v>0.88891041278839111</v>
-      </c>
-      <c r="D5" s="5">
-        <v>23.876871109008789</v>
+        <v>0.84130054712295532</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.44859585165977478</v>
       </c>
       <c r="E5" s="2">
-        <v>0.8620154857635498</v>
+        <v>0.87131780385971069</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1652,16 +1672,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3.119247674942017</v>
+        <v>0.53371411561965942</v>
       </c>
       <c r="C6" s="2">
-        <v>0.9285852313041687</v>
+        <v>0.84942907094955444</v>
       </c>
       <c r="D6" s="2">
-        <v>22.15928840637207</v>
+        <v>0.44618585705757141</v>
       </c>
       <c r="E6" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1669,16 +1689,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0010042190551758</v>
+        <v>0.50782096385955811</v>
       </c>
       <c r="C7" s="2">
-        <v>0.94948714971542358</v>
+        <v>0.85291272401809692</v>
       </c>
       <c r="D7" s="2">
-        <v>21.092512130737301</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.86976742744445801</v>
+        <v>0.44349077343940729</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1686,16 +1706,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1.848903894424438</v>
+        <v>0.48573741316795349</v>
       </c>
       <c r="C8" s="2">
-        <v>0.94871300458908081</v>
+        <v>0.85736405849456787</v>
       </c>
       <c r="D8" s="2">
-        <v>22.88294792175293</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.86666667461395264</v>
+        <v>0.44188711047172552</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0.87596899271011353</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1703,16 +1723,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1.7274787425994871</v>
+        <v>0.46606823801994318</v>
       </c>
       <c r="C9" s="2">
-        <v>0.955680251121521</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11.915378570556641</v>
+        <v>0.86123478412628174</v>
+      </c>
+      <c r="D9" s="48">
+        <v>0.44156357645988459</v>
       </c>
       <c r="E9" s="2">
-        <v>0.86356586217880249</v>
+        <v>0.87596899271011353</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1720,33 +1740,33 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1.362561106681824</v>
+        <v>0.44823315739631647</v>
       </c>
       <c r="C10" s="2">
-        <v>0.96090573072433472</v>
+        <v>0.8658795952796936</v>
       </c>
       <c r="D10" s="2">
-        <v>10.63438510894775</v>
+        <v>0.4420219361782074</v>
       </c>
       <c r="E10" s="2">
-        <v>0.83255815505981445</v>
+        <v>0.87441861629486084</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
-        <v>0.96738266944885254</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.96980839967727661</v>
+      <c r="B11" s="48">
+        <v>0.43201828002929688</v>
+      </c>
+      <c r="C11" s="49">
+        <v>0.87071800231933594</v>
       </c>
       <c r="D11" s="2">
-        <v>13.508131980896</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.78449612855911255</v>
+        <v>0.4427914023399353</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1754,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="50">
-        <v>11.1059112548828</v>
+        <v>0.40723124146461398</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -1765,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="50">
-        <v>0.80370944738387995</v>
+        <v>0.88562595844268799</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -1775,42 +1795,42 @@
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>0.96738266944885254</v>
-      </c>
-      <c r="C14" s="6">
+        <v>0.43201828002929688</v>
+      </c>
+      <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.78594928979873657</v>
-      </c>
-      <c r="D14" s="6">
+        <v>0.81265723705291748</v>
+      </c>
+      <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>10.376626968383791</v>
-      </c>
-      <c r="E14" s="6">
+        <v>0.44156357645988459</v>
+      </c>
+      <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.78449612855911255</v>
+        <v>0.85116279125213623</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>17.82459831237793</v>
-      </c>
-      <c r="C15" s="7">
+        <v>0.8408735990524292</v>
+      </c>
+      <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.96980839967727661</v>
-      </c>
-      <c r="D15" s="7">
+        <v>0.87071800231933594</v>
+      </c>
+      <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>23.876871109008789</v>
-      </c>
-      <c r="E15" s="7">
+        <v>0.46300649642944341</v>
+      </c>
+      <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
-        <v>0.86976742744445801</v>
+        <v>0.87596899271011353</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1827,11 +1847,11 @@
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1848,11 +1868,11 @@
       </c>
       <c r="D17">
         <f>INDEX($A$2:$A$11,MATCH(D15,D2:D11,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1887,60 +1907,60 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="P4:Q5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="15" width="8.7265625" style="11"/>
+    <col min="14" max="15" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N2" s="20">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0.98</v>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N3" s="20">
-        <v>1</v>
-      </c>
-      <c r="O3" s="20">
-        <v>0.69</v>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N4" s="20">
+      <c r="N4" s="18">
         <v>2</v>
       </c>
-      <c r="O4" s="20">
-        <v>0.8</v>
+      <c r="O4" s="18">
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N5" s="20">
+      <c r="N5" s="18">
         <v>3</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="42">
         <v>0.78</v>
       </c>
     </row>
     <row r="6" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <v>4</v>
       </c>
-      <c r="O6" s="45">
-        <v>0.78</v>
+      <c r="O6" s="42">
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="14:15" x14ac:dyDescent="0.35">
@@ -2120,8 +2140,8 @@
   <sheetPr codeName="Folha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2134,19 +2154,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="11"/>
+    <col min="2" max="2" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C1" s="51" t="s">
         <v>35</v>
       </c>
@@ -2155,79 +2175,85 @@
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C2" s="39">
-        <v>0</v>
-      </c>
-      <c r="D2" s="39">
-        <v>1</v>
-      </c>
-      <c r="E2" s="39">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37">
         <v>2</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="37">
         <v>3</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="37">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
-      <c r="B3" s="44">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40">
-        <v>6</v>
+      <c r="B3" s="41">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f>SUM(C3:G3)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52"/>
-      <c r="B4" s="44">
+      <c r="B4" s="41">
         <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52"/>
-      <c r="B5" s="44">
+      <c r="B5" s="41">
         <v>2</v>
       </c>
       <c r="C5" s="2">
@@ -2236,52 +2262,58 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="40">
-        <v>2</v>
+      <c r="E5" s="38">
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52"/>
-      <c r="B6" s="44">
+      <c r="B6" s="41">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="40">
-        <v>29</v>
+      <c r="F6" s="38">
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
-      <c r="B7" s="44">
+      <c r="B7" s="41">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2290,36 +2322,39 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" s="40">
-        <v>482</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="38">
+        <v>558</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="47">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>513</v>
+        <v>618</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
@@ -2344,51 +2379,51 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11"/>
-    <col min="13" max="13" width="3.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="11"/>
+    <col min="9" max="9" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="9"/>
+    <col min="13" max="13" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="I1" s="22" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
       <c r="M1" s="53" t="s">
@@ -2402,347 +2437,347 @@
       <c r="A2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="24">
-        <v>6</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="B2" s="22">
+        <v>8</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
         <f>B2/SUM(B2:B6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="27" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="25" t="str">
         <f>VLOOKUP(C2,$I$1:$K$6,2,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="G2" s="25"/>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="M2" s="20">
+      <c r="K2" s="21"/>
+      <c r="M2" s="18">
         <f>B2+B8+B14+B20+B26</f>
-        <v>520</v>
-      </c>
-      <c r="N2" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="18">
         <v>647</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="28">
         <f>M2/O2</f>
-        <v>0.80370942812983004</v>
+        <v>0.88562596599690879</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
-      <c r="B3" s="20">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="str">
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="str">
         <f>COUNTIF(F3,$F$2)+COUNTIF(G3,$G$2)&amp;" ("&amp;IF(F3=$F$2,"Material, ","")&amp;IF(G3=$G$2,"Ano, ","")&amp;IF(OR(F3=$F$2,G3=$G$2),"","Nenhuma")&amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E3" s="21" t="str">
+      <c r="E3" s="19" t="str">
         <f>ROUND(B3/SUM($B$2:$B$6)*100,0) &amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="F3" s="28" t="str">
+      <c r="F3" s="26" t="str">
         <f t="shared" ref="F3:F6" si="0">VLOOKUP(C3,$I$1:$K$6,2,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="G3" s="28" t="str">
+      <c r="G3" s="26" t="str">
         <f t="shared" ref="G3:G6" si="1">VLOOKUP(C3,$I$1:$K$6,3,FALSE)</f>
         <v>Antes de 1983</v>
       </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <f>COUNTIFS(D2:D30,N3,B2:B30,"&lt;&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="45">
         <f>M3/$M$6</f>
         <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52"/>
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="str">
+      <c r="D4" s="21" t="str">
         <f t="shared" ref="D4:D6" si="2">COUNTIF(F4,$F$2)+COUNTIF(G4,$G$2)&amp;" ("&amp;IF(F4=$F$2,"Material, ","")&amp;IF(G4=$G$2,"Ano, ","")&amp;IF(OR(F4=$F$2,G4=$G$2),"","Nenhuma")&amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E4" s="21" t="str">
+      <c r="E4" s="19" t="str">
         <f t="shared" ref="E4:E6" si="3">ROUND(B4/SUM($B$2:$B$6)*100,0) &amp;"%"</f>
-        <v>8%</v>
-      </c>
-      <c r="F4" s="28" t="str">
+        <v>0%</v>
+      </c>
+      <c r="F4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Aço</v>
       </c>
-      <c r="G4" s="28" t="str">
+      <c r="G4" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Depois de 1983</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <v>2</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <f>COUNTIFS(D2:D30,N4,B2:B30,"&lt;&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="N4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="45">
         <f t="shared" ref="O4:O5" si="4">M4/$M$6</f>
-        <v>0.18181818181818182</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52"/>
-      <c r="B5" s="20">
-        <v>4</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="str">
+      <c r="D5" s="21" t="str">
         <f t="shared" si="2"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E5" s="21" t="str">
+      <c r="E5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>33%</v>
-      </c>
-      <c r="F5" s="28" t="str">
+        <v>8%</v>
+      </c>
+      <c r="F5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G5" s="28" t="str">
+      <c r="G5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Antes de 1983</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>3</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <f>COUNTIFS(D2:D30,N5,B2:B30,"&lt;&gt;0")</f>
-        <v>7</v>
-      </c>
-      <c r="N5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="45">
         <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52"/>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="21" t="str">
         <f t="shared" si="2"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E6" s="21" t="str">
+      <c r="E6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>8%</v>
-      </c>
-      <c r="F6" s="28" t="str">
+        <v>25%</v>
+      </c>
+      <c r="F6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G6" s="28" t="str">
+      <c r="G6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Depois de 1983</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <f>SUM(M3:M5)</f>
         <v>11</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="N7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="24">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
         <f>B8/SUM(B8:B12)</f>
         <v>0.2</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="27" t="str">
+      <c r="E8" s="43"/>
+      <c r="F8" s="25" t="str">
         <f>VLOOKUP(C8,$I$1:$K$6,2,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="G8" s="25" t="str">
         <f t="shared" ref="G8:G12" si="5">VLOOKUP(C8,$I$1:$K$6,3,FALSE)</f>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52"/>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23" t="str">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21" t="str">
         <f>COUNTIF(F9,$F$8)+COUNTIF(G9,$G$8)&amp;" ("&amp; IF(F9=$F$8,"Material, ","") &amp; IF(G9=$G$8,"Ano, ","") &amp; IF(OR(F9=$F$8,G9=$G$8),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="19" t="str">
         <f>ROUND(B9/SUM($B$8:$B$12)*100,0) &amp;"%"</f>
         <v>20%</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="26" t="str">
         <f t="shared" ref="F9:F12" si="6">VLOOKUP(C9,$I$1:$K$6,2,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="52"/>
-      <c r="B10" s="20">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="21" t="str">
         <f t="shared" ref="D10:D12" si="7">COUNTIF(F10,$F$8)+COUNTIF(G10,$G$8)&amp;" ("&amp; IF(F10=$F$8,"Material, ","") &amp; IF(G10=$G$8,"Ano, ","") &amp; IF(OR(F10=$F$8,G10=$G$8),"","Nenhuma") &amp;")"</f>
         <v>1 (Material, )</v>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="E10" s="19" t="str">
         <f t="shared" ref="E10:E12" si="8">ROUND(B10/SUM($B$8:$B$12)*100,0) &amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="F10" s="28" t="str">
+      <c r="F10" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Aço</v>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G10" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Depois de 1983</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52"/>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="20">
-        <v>3</v>
-      </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="21" t="str">
         <f t="shared" si="7"/>
         <v>1 (Ano, )</v>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>60%</v>
-      </c>
-      <c r="F11" s="28" t="str">
+        <v>40%</v>
+      </c>
+      <c r="F11" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="52"/>
-      <c r="B12" s="20">
-        <v>0</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" si="7"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
-      </c>
-      <c r="F12" s="28" t="str">
+        <v>20%</v>
+      </c>
+      <c r="F12" s="26" t="str">
         <f t="shared" si="6"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Depois de 1983</v>
       </c>
@@ -2751,122 +2786,122 @@
       <c r="A14" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="C14" s="24">
-        <v>2</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <f>B14/SUM(B14:B18)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="27" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="25" t="str">
         <f>VLOOKUP(C14,$I$1:$K$6,2,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="25" t="str">
         <f t="shared" ref="G14:G18" si="9">VLOOKUP(C14,$I$1:$K$6,3,FALSE)</f>
         <v>Depois de 1983</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52"/>
-      <c r="B15" s="20">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23" t="str">
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21" t="str">
         <f>COUNTIF(F15,$F$14)+COUNTIF(G15,$G$14)&amp;" ("&amp; IF(F15=$F$14,"Material, ","") &amp; IF(G15=$G$14,"Ano, ","") &amp; IF(OR(F15=$F$14,G15=$G$14),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="19" t="str">
         <f>ROUND(B15/SUM($B$14:$B$18)*100,0) &amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="F15" s="28" t="str">
+      <c r="F15" s="26" t="str">
         <f t="shared" ref="F15:F18" si="10">VLOOKUP(C15,$I$1:$K$6,2,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="52"/>
-      <c r="B16" s="20">
-        <v>0</v>
-      </c>
-      <c r="C16" s="20">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23" t="str">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="str">
         <f t="shared" ref="D16:D18" si="11">COUNTIF(F16,$F$14)+COUNTIF(G16,$G$14)&amp;" ("&amp; IF(F16=$F$14,"Material, ","") &amp; IF(G16=$G$14,"Ano, ","") &amp; IF(OR(F16=$F$14,G16=$G$14),"","Nenhuma") &amp;")"</f>
         <v>1 (Material, )</v>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="19" t="str">
         <f t="shared" ref="E16:E18" si="12">ROUND(B16/SUM($B$14:$B$18)*100,0) &amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="F16" s="28" t="str">
+      <c r="F16" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Aço</v>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="26" t="str">
         <f t="shared" si="9"/>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
         <v>3</v>
       </c>
-      <c r="C17" s="20">
-        <v>3</v>
-      </c>
-      <c r="D17" s="23" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="11"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>30%</v>
-      </c>
-      <c r="F17" s="28" t="str">
+        <v>0%</v>
+      </c>
+      <c r="F17" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="26" t="str">
         <f t="shared" si="9"/>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
-      <c r="B18" s="20">
-        <v>5</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="B18" s="18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="18">
         <v>4</v>
       </c>
-      <c r="D18" s="23" t="str">
+      <c r="D18" s="21" t="str">
         <f t="shared" si="11"/>
         <v>1 (Ano, )</v>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>50%</v>
-      </c>
-      <c r="F18" s="28" t="str">
+        <v>60%</v>
+      </c>
+      <c r="F18" s="26" t="str">
         <f t="shared" si="10"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="26" t="str">
         <f t="shared" si="9"/>
         <v>Depois de 1983</v>
       </c>
@@ -2875,122 +2910,122 @@
       <c r="A20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="24">
-        <v>29</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B20" s="22">
+        <v>2</v>
+      </c>
+      <c r="C20" s="22">
         <v>3</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <f>B20/SUM(B20:B24)</f>
-        <v>0.50877192982456143</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="27" t="str">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="25" t="str">
         <f>VLOOKUP(C20,$I$1:$K$6,2,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="25" t="str">
         <f t="shared" ref="G20:G24" si="13">VLOOKUP(C20,$I$1:$K$6,3,FALSE)</f>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="52"/>
-      <c r="B21" s="20">
-        <v>3</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23" t="str">
+      <c r="B21" s="18">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21" t="str">
         <f>COUNTIF(F21,$F$20)+COUNTIF(G21,$G$20)&amp;" ("&amp; IF(F21=$F$20,"Material, ","") &amp; IF(G21=$G$20,"Ano, ","") &amp; IF(OR(F21=$F$20,G21=$G$20),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="19" t="str">
         <f>ROUND(B21/SUM($B$20:$B$24)*100,0) &amp;"%"</f>
-        <v>5%</v>
-      </c>
-      <c r="F21" s="28" t="str">
+        <v>7%</v>
+      </c>
+      <c r="F21" s="26" t="str">
         <f t="shared" ref="F21:F24" si="14">VLOOKUP(C21,$I$1:$K$6,2,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="52"/>
-      <c r="B22" s="20">
-        <v>0</v>
-      </c>
-      <c r="C22" s="20">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23" t="str">
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21" t="str">
         <f t="shared" ref="D22:D24" si="15">COUNTIF(F22,$F$20)+COUNTIF(G22,$G$20)&amp;" ("&amp; IF(F22=$F$20,"Material, ","") &amp; IF(G22=$G$20,"Ano, ","") &amp; IF(OR(F22=$F$20,G22=$G$20),"","Nenhuma") &amp;")"</f>
         <v>1 (Ano, )</v>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="19" t="str">
         <f t="shared" ref="E22:E24" si="16">ROUND(B22/SUM($B$20:$B$24)*100,0) &amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="F22" s="28" t="str">
+        <v>2%</v>
+      </c>
+      <c r="F22" s="26" t="str">
         <f t="shared" si="14"/>
         <v>Aço</v>
       </c>
-      <c r="G22" s="28" t="str">
+      <c r="G22" s="26" t="str">
         <f t="shared" si="13"/>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="52"/>
-      <c r="B23" s="20">
-        <v>0</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="B23" s="18">
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
         <v>2</v>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D23" s="21" t="str">
         <f t="shared" si="15"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" s="19" t="str">
         <f t="shared" si="16"/>
         <v>0%</v>
       </c>
-      <c r="F23" s="28" t="str">
+      <c r="F23" s="26" t="str">
         <f t="shared" si="14"/>
         <v>Aço</v>
       </c>
-      <c r="G23" s="28" t="str">
+      <c r="G23" s="26" t="str">
         <f t="shared" si="13"/>
         <v>Depois de 1983</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="52"/>
-      <c r="B24" s="20">
-        <v>25</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="B24" s="18">
+        <v>50</v>
+      </c>
+      <c r="C24" s="18">
         <v>4</v>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="D24" s="21" t="str">
         <f t="shared" si="15"/>
         <v>1 (Material, )</v>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>44%</v>
-      </c>
-      <c r="F24" s="28" t="str">
+        <v>88%</v>
+      </c>
+      <c r="F24" s="26" t="str">
         <f t="shared" si="14"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="26" t="str">
         <f t="shared" si="13"/>
         <v>Depois de 1983</v>
       </c>
@@ -2999,122 +3034,122 @@
       <c r="A26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="24">
-        <v>482</v>
-      </c>
-      <c r="C26" s="24">
+      <c r="B26" s="22">
+        <v>558</v>
+      </c>
+      <c r="C26" s="22">
         <v>4</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="44">
         <f>B26/SUM(B26:B30)</f>
-        <v>0.85612788632326819</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="27" t="str">
+        <v>0.99111900532859676</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="25" t="str">
         <f>VLOOKUP(C26,$I$1:$K$6,2,FALSE)</f>
         <v>Betão Armado</v>
       </c>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="25" t="str">
         <f t="shared" ref="G26:G30" si="17">VLOOKUP(C26,$I$1:$K$6,3,FALSE)</f>
         <v>Depois de 1983</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="52"/>
-      <c r="B27" s="20">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="23" t="str">
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21" t="str">
         <f>COUNTIF(F27,$F$26)+COUNTIF(G27,$G$26)&amp;" ("&amp; IF(F27=$F$26,"Material, ","") &amp; IF(G27=$G$26,"Ano, ","") &amp; IF(OR(F27=$F$26,G27=$G$26),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="E27" s="19" t="str">
         <f>ROUND(B27/SUM($B$26:$B$30)*100,1) &amp;"%"</f>
-        <v>0,5%</v>
-      </c>
-      <c r="F27" s="28" t="str">
+        <v>0,2%</v>
+      </c>
+      <c r="F27" s="26" t="str">
         <f t="shared" ref="F27:F30" si="18">VLOOKUP(C27,$I$1:$K$6,2,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="52"/>
-      <c r="B28" s="20">
-        <v>0</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="23" t="str">
+      <c r="B28" s="18">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21" t="str">
         <f t="shared" ref="D28:D30" si="19">COUNTIF(F28,$F$26)+COUNTIF(G28,$G$26)&amp;" ("&amp; IF(F28=$F$26,"Material, ","") &amp; IF(G28=$G$26,"Ano, ","") &amp; IF(OR(F28=$F$26,G28=$G$26),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="E28" s="19" t="str">
         <f t="shared" ref="E28:E30" si="20">ROUND(B28/SUM($B$26:$B$30)*100,1) &amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="F28" s="28" t="str">
+      <c r="F28" s="26" t="str">
         <f t="shared" si="18"/>
         <v>Aço</v>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="26" t="str">
         <f t="shared" si="17"/>
         <v>Antes de 1983</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="52"/>
-      <c r="B29" s="20">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20">
+      <c r="B29" s="18">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18">
         <v>2</v>
       </c>
-      <c r="D29" s="23" t="str">
+      <c r="D29" s="21" t="str">
         <f t="shared" si="19"/>
         <v>1 (Ano, )</v>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="E29" s="19" t="str">
         <f t="shared" si="20"/>
         <v>0%</v>
       </c>
-      <c r="F29" s="28" t="str">
+      <c r="F29" s="26" t="str">
         <f t="shared" si="18"/>
         <v>Aço</v>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="26" t="str">
         <f t="shared" si="17"/>
         <v>Depois de 1983</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="52"/>
-      <c r="B30" s="20">
-        <v>78</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="B30" s="18">
+        <v>4</v>
+      </c>
+      <c r="C30" s="18">
         <v>3</v>
       </c>
-      <c r="D30" s="23" t="str">
+      <c r="D30" s="21" t="str">
         <f t="shared" si="19"/>
         <v>1 (Material, )</v>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="E30" s="19" t="str">
         <f t="shared" si="20"/>
-        <v>13,9%</v>
-      </c>
-      <c r="F30" s="28" t="str">
+        <v>0,7%</v>
+      </c>
+      <c r="F30" s="26" t="str">
         <f t="shared" si="18"/>
         <v>Betão Armado</v>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="26" t="str">
         <f t="shared" si="17"/>
         <v>Antes de 1983</v>
       </c>
@@ -3139,329 +3174,329 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K1"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.97990726429675401</v>
+        <v>0.98454404945904173</v>
       </c>
       <c r="C2" s="2">
-        <v>0.46153846153846201</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="F2" s="32">
+        <v>0.61538461538461531</v>
+      </c>
+      <c r="F2" s="30">
         <f>'Matriz Confusão 2'!H3</f>
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="str" cm="1">
+      <c r="G2" s="10" t="str" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H2" s="12" t="str" cm="1">
+      <c r="H2" s="10" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</f>
-        <v>Baixo</v>
-      </c>
-      <c r="I2" s="12" t="str" cm="1">
+        <v>Médio</v>
+      </c>
+      <c r="I2" s="10" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="J2" s="18" t="str" cm="1">
+      <c r="J2" s="16" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Médio</v>
       </c>
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.99381761978361671</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99227202472952092</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
       </c>
       <c r="D3" s="2">
         <v>0.2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.33333333333333343</v>
-      </c>
-      <c r="F3" s="32">
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="F3" s="30">
         <f>'Matriz Confusão 2'!H4</f>
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="str" cm="1">
+      <c r="G3" s="10" t="str" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(AND(B3&lt;=1,B3&gt;=0.95),"Muito Alta",AND(B3&lt;0.95,B3&gt;=0.9),"Alta",AND(B3&lt;0.9,B3&gt;=0.7),"Boa",AND(B3&lt;0.7,B3&gt;=0.5),"Médio",AND(B3&lt;0.5,B3&gt;=0.25),"Baixo",AND(B3&lt;0.25,B3&gt;0),"Muito Baixo",B3=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H3" s="12" t="str" cm="1">
+      <c r="H3" s="10" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(AND(C3&lt;=1,C3&gt;=0.95),"Muito Alta",AND(C3&lt;0.95,C3&gt;=0.9),"Alta",AND(C3&lt;0.9,C3&gt;=0.7),"Boa",AND(C3&lt;0.7,C3&gt;=0.5),"Médio",AND(C3&lt;0.5,C3&gt;=0.25),"Baixo",AND(C3&lt;0.25,C3&gt;0),"Muito Baixo",C3=0,"Zero")</f>
-        <v>Muito Alta</v>
-      </c>
-      <c r="I3" s="12" t="str" cm="1">
+        <v>Médio</v>
+      </c>
+      <c r="I3" s="10" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(AND(D3&lt;=1,D3&gt;=0.95),"Muito Alta",AND(D3&lt;0.95,D3&gt;=0.9),"Alta",AND(D3&lt;0.9,D3&gt;=0.7),"Boa",AND(D3&lt;0.7,D3&gt;=0.5),"Médio",AND(D3&lt;0.5,D3&gt;=0.25),"Baixo",AND(D3&lt;0.25,D3&gt;0),"Muito Baixo",D3=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="J3" s="18" t="str" cm="1">
+      <c r="J3" s="16" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.IFS(AND(E3&lt;=1,E3&gt;=0.95),"Muito Alta",AND(E3&lt;0.95,E3&gt;=0.9),"Alta",AND(E3&lt;0.9,E3&gt;=0.7),"Boa",AND(E3&lt;0.7,E3&gt;=0.5),"Médio",AND(E3&lt;0.5,E3&gt;=0.25),"Baixo",AND(E3&lt;0.25,E3&gt;0),"Muito Baixo",E3=0,"Zero")</f>
         <v>Baixo</v>
       </c>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
-        <v>0.98608964451313752</v>
-      </c>
-      <c r="C4" s="43">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D4" s="43">
-        <v>0.2</v>
+      <c r="B4" s="46">
+        <v>0.99072642967542501</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.4</v>
       </c>
       <c r="E4" s="46">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="F4" s="32">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="F4" s="30">
         <f>'Matriz Confusão 2'!H5</f>
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="str" cm="1">
+      <c r="G4" s="10" t="str" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(AND(B4&lt;=1,B4&gt;=0.95),"Muito Alta",AND(B4&lt;0.95,B4&gt;=0.9),"Alta",AND(B4&lt;0.9,B4&gt;=0.7),"Boa",AND(B4&lt;0.7,B4&gt;=0.5),"Médio",AND(B4&lt;0.5,B4&gt;=0.25),"Baixo",AND(B4&lt;0.25,B4&gt;0),"Muito Baixo",B4=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H4" s="12" t="str" cm="1">
+      <c r="H4" s="10" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(AND(C4&lt;=1,C4&gt;=0.95),"Muito Alta",AND(C4&lt;0.95,C4&gt;=0.9),"Alta",AND(C4&lt;0.9,C4&gt;=0.7),"Boa",AND(C4&lt;0.7,C4&gt;=0.5),"Médio",AND(C4&lt;0.5,C4&gt;=0.25),"Baixo",AND(C4&lt;0.25,C4&gt;0),"Muito Baixo",C4=0,"Zero")</f>
+        <v>Muito Alta</v>
+      </c>
+      <c r="I4" s="10" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(AND(D4&lt;=1,D4&gt;=0.95),"Muito Alta",AND(D4&lt;0.95,D4&gt;=0.9),"Alta",AND(D4&lt;0.9,D4&gt;=0.7),"Boa",AND(D4&lt;0.7,D4&gt;=0.5),"Médio",AND(D4&lt;0.5,D4&gt;=0.25),"Baixo",AND(D4&lt;0.25,D4&gt;0),"Muito Baixo",D4=0,"Zero")</f>
+        <v>Baixo</v>
+      </c>
+      <c r="J4" s="16" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="I4" s="12" t="str" cm="1">
-        <f t="array" ref="I4">_xlfn.IFS(AND(D4&lt;=1,D4&gt;=0.95),"Muito Alta",AND(D4&lt;0.95,D4&gt;=0.9),"Alta",AND(D4&lt;0.9,D4&gt;=0.7),"Boa",AND(D4&lt;0.7,D4&gt;=0.5),"Médio",AND(D4&lt;0.5,D4&gt;=0.25),"Baixo",AND(D4&lt;0.25,D4&gt;0),"Muito Baixo",D4=0,"Zero")</f>
-        <v>Muito Baixo</v>
-      </c>
-      <c r="J4" s="18" t="str" cm="1">
-        <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
-        <v>Baixo</v>
-      </c>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>0.82071097372488411</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.24786324786324801</v>
+      <c r="B5" s="2">
+        <v>0.90417310664605877</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.22222222222222221</v>
       </c>
       <c r="D5" s="2">
-        <v>0.50877192982456143</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F5" s="32">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="F5" s="30">
         <f>'Matriz Confusão 2'!H6</f>
         <v>57</v>
       </c>
-      <c r="G5" s="20" t="str" cm="1">
+      <c r="G5" s="18" t="str" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(AND(B5&lt;=1,B5&gt;=0.95),"Muito Alta",AND(B5&lt;0.95,B5&gt;=0.9),"Alta",AND(B5&lt;0.9,B5&gt;=0.7),"Boa",AND(B5&lt;0.7,B5&gt;=0.5),"Médio",AND(B5&lt;0.5,B5&gt;=0.25),"Baixo",AND(B5&lt;0.25,B5&gt;0),"Muito Baixo",B5=0,"Zero")</f>
-        <v>Boa</v>
-      </c>
-      <c r="H5" s="20" t="str" cm="1">
+        <v>Alta</v>
+      </c>
+      <c r="H5" s="18" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(AND(C5&lt;=1,C5&gt;=0.95),"Muito Alta",AND(C5&lt;0.95,C5&gt;=0.9),"Alta",AND(C5&lt;0.9,C5&gt;=0.7),"Boa",AND(C5&lt;0.7,C5&gt;=0.5),"Médio",AND(C5&lt;0.5,C5&gt;=0.25),"Baixo",AND(C5&lt;0.25,C5&gt;0),"Muito Baixo",C5=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="I5" s="20" t="str" cm="1">
+      <c r="I5" s="18" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(AND(D5&lt;=1,D5&gt;=0.95),"Muito Alta",AND(D5&lt;0.95,D5&gt;=0.9),"Alta",AND(D5&lt;0.9,D5&gt;=0.7),"Boa",AND(D5&lt;0.7,D5&gt;=0.5),"Médio",AND(D5&lt;0.5,D5&gt;=0.25),"Baixo",AND(D5&lt;0.25,D5&gt;0),"Muito Baixo",D5=0,"Zero")</f>
-        <v>Médio</v>
-      </c>
-      <c r="J5" s="20" t="str" cm="1">
+        <v>Muito Baixo</v>
+      </c>
+      <c r="J5" s="18" t="str" cm="1">
         <f t="array" ref="J5">_xlfn.IFS(AND(E5&lt;=1,E5&gt;=0.95),"Muito Alta",AND(E5&lt;0.95,E5&gt;=0.9),"Alta",AND(E5&lt;0.9,E5&gt;=0.7),"Boa",AND(E5&lt;0.7,E5&gt;=0.5),"Médio",AND(E5&lt;0.5,E5&gt;=0.25),"Baixo",AND(E5&lt;0.25,E5&gt;0),"Muito Baixo",E5=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Muito Baixo</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.82689335394126739</v>
+        <v>0.89953632148377127</v>
       </c>
       <c r="C6" s="2">
-        <v>0.93957115009746583</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.85612788632326819</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.89591078066914498</v>
-      </c>
-      <c r="F6" s="32">
+        <v>0.90291262135922334</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.99111900532859676</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.9449618966977138</v>
+      </c>
+      <c r="F6" s="30">
         <f>'Matriz Confusão 2'!H7</f>
         <v>563</v>
       </c>
-      <c r="G6" s="20" t="str" cm="1">
+      <c r="G6" s="18" t="str" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(AND(B6&lt;=1,B6&gt;=0.95),"Muito Alta",AND(B6&lt;0.95,B6&gt;=0.9),"Alta",AND(B6&lt;0.9,B6&gt;=0.7),"Boa",AND(B6&lt;0.7,B6&gt;=0.5),"Médio",AND(B6&lt;0.5,B6&gt;=0.25),"Baixo",AND(B6&lt;0.25,B6&gt;0),"Muito Baixo",B6=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="H6" s="20" t="str" cm="1">
+      <c r="H6" s="18" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(AND(C6&lt;=1,C6&gt;=0.95),"Muito Alta",AND(C6&lt;0.95,C6&gt;=0.9),"Alta",AND(C6&lt;0.9,C6&gt;=0.7),"Boa",AND(C6&lt;0.7,C6&gt;=0.5),"Médio",AND(C6&lt;0.5,C6&gt;=0.25),"Baixo",AND(C6&lt;0.25,C6&gt;0),"Muito Baixo",C6=0,"Zero")</f>
         <v>Alta</v>
       </c>
-      <c r="I6" s="20" t="str" cm="1">
+      <c r="I6" s="18" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(AND(D6&lt;=1,D6&gt;=0.95),"Muito Alta",AND(D6&lt;0.95,D6&gt;=0.9),"Alta",AND(D6&lt;0.9,D6&gt;=0.7),"Boa",AND(D6&lt;0.7,D6&gt;=0.5),"Médio",AND(D6&lt;0.5,D6&gt;=0.25),"Baixo",AND(D6&lt;0.25,D6&gt;0),"Muito Baixo",D6=0,"Zero")</f>
-        <v>Boa</v>
-      </c>
-      <c r="J6" s="20" t="str" cm="1">
+        <v>Muito Alta</v>
+      </c>
+      <c r="J6" s="18" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.IFS(AND(E6&lt;=1,E6&gt;=0.95),"Muito Alta",AND(E6&lt;0.95,E6&gt;=0.9),"Alta",AND(E6&lt;0.9,E6&gt;=0.7),"Boa",AND(E6&lt;0.7,E6&gt;=0.5),"Médio",AND(E6&lt;0.5,E6&gt;=0.25),"Baixo",AND(E6&lt;0.25,E6&gt;0),"Muito Baixo",E6=0,"Zero")</f>
-        <v>Boa</v>
+        <v>Alta</v>
       </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>MIN(B2:B6)</f>
-        <v>0.82071097372488411</v>
-      </c>
-      <c r="C7" s="6">
+        <v>0.89953632148377127</v>
+      </c>
+      <c r="C7" s="5">
         <f>MIN(C2:C6)</f>
-        <v>0.24786324786324801</v>
-      </c>
-      <c r="D7" s="6">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7" s="5">
         <f>MIN(D2:D6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="6">
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="E7" s="5">
         <f>MIN(E2:E6)</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="G7" s="11">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="G7" s="9">
         <f>COUNTIF(G2:G6,$K$7)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f>COUNTIF(H2:H6,$K$7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <f>COUNTIF(I2:I6,$K$7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
         <f>COUNTIF(J2:J6,$K$7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f>MAX(B2:B6)</f>
-        <v>0.99381761978361671</v>
-      </c>
-      <c r="C8" s="7">
+        <v>0.99227202472952092</v>
+      </c>
+      <c r="C8" s="6">
         <f>MAX(C2:C6)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>MAX(D2:D6)</f>
-        <v>0.85612788632326819</v>
-      </c>
-      <c r="E8" s="7">
+        <v>0.99111900532859676</v>
+      </c>
+      <c r="E8" s="6">
         <f>MAX(E2:E6)</f>
-        <v>0.89591078066914498</v>
-      </c>
-      <c r="G8" s="11">
+        <v>0.9449618966977138</v>
+      </c>
+      <c r="G8" s="9">
         <f>COUNTIF(G2:G6,$K$8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
         <f>COUNTIF(H2:H6,$K$8)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f>COUNTIF(I2:I6,$K$8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <f>COUNTIF(J2:J6,$K$8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>0</v>
       </c>
       <c r="B9">
@@ -3480,28 +3515,28 @@
         <f>COUNTIF(E2:E6,"=0")</f>
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f>COUNTIF(G2:G6,$K$9)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
         <f>COUNTIF(H2:H6,$K$9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <f>COUNTIF(I2:I6,$K$9)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <f>COUNTIF(J2:J6,$K$9)</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
       <c r="B10">
@@ -3520,109 +3555,109 @@
         <f>COUNTIF(E2:E6,"=1")</f>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <f>COUNTIF(G2:G6,$K$10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f>COUNTIF(H2:H6,$K$10)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9">
         <f>COUNTIF(I2:I6,$K$10)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <f>COUNTIF(J2:J6,$K$10)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="11">
-        <f>COUNTIF(J2:J6,$K$10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(B7,B2:B6,0))</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(C7,C2:C6,0))</f>
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(D7,D2:D6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(E7,E2:E6,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="9">
+        <f>COUNTIF(G2:G6,$K$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>COUNTIF(H2:H6,$K$11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f>COUNTIF(I2:I6,$K$11)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <f>COUNTIF(J2:J6,$K$11)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <f>INDEX($A$2:$A$6,MATCH(B8,B2:B6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <f>INDEX($A$2:$A$6,MATCH(C8,C2:C6,0))</f>
         <v>2</v>
       </c>
-      <c r="G11" s="11">
-        <f>COUNTIF(G2:G6,$K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f>COUNTIF(H2:H6,$K$11)</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <f>COUNTIF(I2:I6,$K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <f>COUNTIF(J2:J6,$K$11)</f>
-        <v>4</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
-        <f>INDEX($A$2:$A$6,MATCH(B8,B2:B6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <f>INDEX($A$2:$A$6,MATCH(C8,C2:C6,0))</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>INDEX($A$2:$A$6,MATCH(D8,D2:D6,0))</f>
         <v>4</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>INDEX($A$2:$A$6,MATCH(E8,E2:E6,0))</f>
         <v>4</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="11">
+      <c r="F12" s="32"/>
+      <c r="G12" s="9">
         <f>COUNTIF(G2:G6,$K$12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>COUNTIF(H2:H6,$K$12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <f>COUNTIF(I2:I6,$K$12)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f>COUNTIF(J2:J6,$K$12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="G13">
         <f>SUM(G7:G12)+B9</f>
         <v>5</v>

--- a/Resultados/Material + Ano/ResNet/Tentativa 1/Do Zero.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 1/Do Zero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE1D77-ABD1-4280-99D9-2667BE94666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F86426-3A9E-4726-ADC6-3E81184A6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -345,19 +345,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -424,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,64 +443,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +511,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,10 +528,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +547,102 @@
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -637,94 +717,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -855,10 +847,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82F47B5-176F-1B30-6501-C1EFA2E9772C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9027EF0-B029-D51B-10E1-E8802EBC3F2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +905,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6953FE3F-7A40-B87E-5DBE-402BB05BC8B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890F50B2-A329-E967-C6BD-7E19D8C44F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +960,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A2D575-D6D8-3498-F491-DC3972FC9F0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B1998C-E8E9-90DA-3DC9-03B74816F31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1015,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385DD38C-78F8-7C3C-D2B7-ADFBC661A603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB7E3F6-1440-7B5E-DC37-35B0C0D58F6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1070,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92F783D-4425-43DC-55B7-AAF2AEBC362D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F9AE34-CF6F-8CF6-45B8-903298F1B367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1125,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFD8C06-F89D-CD37-374D-360C7D2B32D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BF4AF0-352B-9FA1-53BF-D14DE73AA464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1180,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56302CB5-C610-09C8-2F88-C04700B3B7E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB84FF4F-D211-83B5-88D4-ABBA015767AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,23 +1220,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1573,7 +1565,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="3" sqref="B2 C11 D2 E8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,17 +1595,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49">
-        <v>0.8408735990524292</v>
-      </c>
-      <c r="C2" s="48">
-        <v>0.81265723705291748</v>
-      </c>
-      <c r="D2" s="49">
-        <v>0.46300649642944341</v>
-      </c>
-      <c r="E2" s="48">
-        <v>0.85116279125213623</v>
+      <c r="B2" s="2">
+        <v>0.83795684576034546</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.81149601936340332</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5559505820274353</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.85581398010253906</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1621,16 +1613,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.67956143617630005</v>
+        <v>0.68540328741073608</v>
       </c>
       <c r="C3" s="2">
-        <v>0.82175344228744507</v>
+        <v>0.82233405113220215</v>
       </c>
       <c r="D3" s="2">
-        <v>0.44861361384391779</v>
+        <v>0.51412403583526611</v>
       </c>
       <c r="E3" s="2">
-        <v>0.86976742744445801</v>
+        <v>0.86356586217880249</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1638,16 +1630,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.61123871803283691</v>
+        <v>0.60580897331237793</v>
       </c>
       <c r="C4" s="2">
-        <v>0.8296884298324585</v>
+        <v>0.83413970470428467</v>
       </c>
       <c r="D4" s="2">
-        <v>0.44972804188728333</v>
+        <v>0.49650681018829351</v>
       </c>
       <c r="E4" s="2">
-        <v>0.87286823987960815</v>
+        <v>0.86666667461395264</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1655,16 +1647,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.56626421213150024</v>
+        <v>0.55849558115005493</v>
       </c>
       <c r="C5" s="2">
         <v>0.84130054712295532</v>
       </c>
       <c r="D5" s="2">
-        <v>0.44859585165977478</v>
+        <v>0.48760664463043207</v>
       </c>
       <c r="E5" s="2">
-        <v>0.87131780385971069</v>
+        <v>0.86821705102920532</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1672,16 +1664,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.53371411561965942</v>
+        <v>0.52637529373168945</v>
       </c>
       <c r="C6" s="2">
-        <v>0.84942907094955444</v>
+        <v>0.84846138954162598</v>
       </c>
       <c r="D6" s="2">
-        <v>0.44618585705757141</v>
+        <v>0.47994163632392878</v>
       </c>
       <c r="E6" s="2">
-        <v>0.87286823987960815</v>
+        <v>0.86666667461395264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1689,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.50782096385955811</v>
+        <v>0.50121992826461792</v>
       </c>
       <c r="C7" s="2">
         <v>0.85291272401809692</v>
       </c>
       <c r="D7" s="2">
-        <v>0.44349077343940729</v>
+        <v>0.47518059611320501</v>
       </c>
       <c r="E7" s="2">
-        <v>0.87286823987960815</v>
+        <v>0.86821705102920532</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1706,16 +1698,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.48573741316795349</v>
+        <v>0.48011541366577148</v>
       </c>
       <c r="C8" s="2">
-        <v>0.85736405849456787</v>
+        <v>0.85794466733932495</v>
       </c>
       <c r="D8" s="2">
-        <v>0.44188711047172552</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0.87596899271011353</v>
+        <v>0.47274893522262568</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.86511629819869995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1723,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.46606823801994318</v>
+        <v>0.4616686999797821</v>
       </c>
       <c r="C9" s="2">
-        <v>0.86123478412628174</v>
-      </c>
-      <c r="D9" s="48">
-        <v>0.44156357645988459</v>
+        <v>0.86220246553421021</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.47166559100151062</v>
       </c>
       <c r="E9" s="2">
-        <v>0.87596899271011353</v>
+        <v>0.86666667461395264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1740,56 +1732,56 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.44823315739631647</v>
+        <v>0.44512936472892761</v>
       </c>
       <c r="C10" s="2">
-        <v>0.8658795952796936</v>
+        <v>0.86684727668762207</v>
       </c>
       <c r="D10" s="2">
-        <v>0.4420219361782074</v>
+        <v>0.47145718336105352</v>
       </c>
       <c r="E10" s="2">
-        <v>0.87441861629486084</v>
+        <v>0.86821705102920532</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="48">
-        <v>0.43201828002929688</v>
-      </c>
-      <c r="C11" s="49">
-        <v>0.87071800231933594</v>
+      <c r="B11" s="2">
+        <v>0.4301837682723999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.86994385719299316</v>
       </c>
       <c r="D11" s="2">
-        <v>0.4427914023399353</v>
+        <v>0.4718092679977417</v>
       </c>
       <c r="E11" s="2">
-        <v>0.87286823987960815</v>
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50">
-        <v>0.40723124146461398</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="47">
+        <v>0.43307203054428101</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="50">
-        <v>0.88562595844268799</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="47">
+        <v>0.884080350399017</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1797,19 +1789,19 @@
       </c>
       <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>0.43201828002929688</v>
+        <v>0.4301837682723999</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.81265723705291748</v>
+        <v>0.81149601936340332</v>
       </c>
       <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>0.44156357645988459</v>
+        <v>0.47145718336105352</v>
       </c>
       <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.85116279125213623</v>
+        <v>0.85581398010253906</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1818,19 +1810,19 @@
       </c>
       <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>0.8408735990524292</v>
+        <v>0.83795684576034546</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.87071800231933594</v>
+        <v>0.86994385719299316</v>
       </c>
       <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>0.46300649642944341</v>
+        <v>0.5559505820274353</v>
       </c>
       <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
-        <v>0.87596899271011353</v>
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
@@ -1872,7 +1864,7 @@
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="42">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="14:15" x14ac:dyDescent="0.35">
@@ -1960,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="42">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7" spans="14:15" x14ac:dyDescent="0.35">
@@ -2141,7 +2133,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2167,13 +2159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
@@ -2193,7 +2185,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="str">
+      <c r="A3" s="49" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2201,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2213,18 +2205,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <f>SUM(C3:G3)</f>
         <v>12</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -2247,12 +2239,12 @@
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -2263,52 +2255,52 @@
         <v>0</v>
       </c>
       <c r="E5" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
       <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>2</v>
-      </c>
       <c r="G6" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -2322,23 +2314,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="38">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="46">
         <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
@@ -2346,15 +2338,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
@@ -2426,26 +2418,26 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
       <c r="D2" s="23">
         <f>B2/SUM(B2:B6)</f>
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="25" t="str">
@@ -2462,7 +2454,7 @@
       <c r="K2" s="21"/>
       <c r="M2" s="18">
         <f>B2+B8+B14+B20+B26</f>
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>28</v>
@@ -2472,11 +2464,11 @@
       </c>
       <c r="P2" s="28">
         <f>M2/O2</f>
-        <v>0.88562596599690879</v>
+        <v>0.884080370942813</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="18">
         <v>0</v>
       </c>
@@ -2521,7 +2513,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -2566,7 +2558,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -2611,9 +2603,9 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="18">
         <v>4</v>
@@ -2624,7 +2616,7 @@
       </c>
       <c r="E6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>25%</v>
+        <v>50%</v>
       </c>
       <c r="F6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2659,7 +2651,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22">
@@ -2683,7 +2675,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="18">
         <v>1</v>
       </c>
@@ -2708,7 +2700,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="18">
         <v>0</v>
       </c>
@@ -2733,7 +2725,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="18">
         <v>2</v>
       </c>
@@ -2758,7 +2750,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="18">
         <v>1</v>
       </c>
@@ -2783,18 +2775,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="22">
         <v>2</v>
       </c>
       <c r="D14" s="23">
         <f>B14/SUM(B14:B18)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="25" t="str">
@@ -2807,7 +2799,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="18">
         <v>0</v>
       </c>
@@ -2832,7 +2824,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="18">
         <v>0</v>
       </c>
@@ -2857,7 +2849,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18">
         <v>0</v>
       </c>
@@ -2882,9 +2874,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="18">
         <v>4</v>
@@ -2895,7 +2887,7 @@
       </c>
       <c r="E18" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>60%</v>
+        <v>70%</v>
       </c>
       <c r="F18" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2907,18 +2899,18 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="22">
         <v>3</v>
       </c>
       <c r="D20" s="23">
         <f>B20/SUM(B20:B24)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="25" t="str">
@@ -2931,9 +2923,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="18">
         <v>0</v>
@@ -2944,7 +2936,7 @@
       </c>
       <c r="E21" s="19" t="str">
         <f>ROUND(B21/SUM($B$20:$B$24)*100,0) &amp;"%"</f>
-        <v>7%</v>
+        <v>5%</v>
       </c>
       <c r="F21" s="26" t="str">
         <f t="shared" ref="F21:F24" si="14">VLOOKUP(C21,$I$1:$K$6,2,FALSE)</f>
@@ -2956,7 +2948,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="18">
         <v>1</v>
       </c>
@@ -2981,7 +2973,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="18">
         <v>0</v>
       </c>
@@ -3006,9 +2998,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="18">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="18">
         <v>4</v>
@@ -3019,7 +3011,7 @@
       </c>
       <c r="E24" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>88%</v>
+        <v>86%</v>
       </c>
       <c r="F24" s="26" t="str">
         <f t="shared" si="14"/>
@@ -3031,18 +3023,18 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C26" s="22">
         <v>4</v>
       </c>
       <c r="D26" s="44">
         <f>B26/SUM(B26:B30)</f>
-        <v>0.99111900532859676</v>
+        <v>0.99289520426287747</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="25" t="str">
@@ -3055,7 +3047,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="18">
         <v>1</v>
       </c>
@@ -3080,7 +3072,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="18">
         <v>0</v>
       </c>
@@ -3105,7 +3097,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="18">
         <v>0</v>
       </c>
@@ -3130,9 +3122,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="18">
         <v>3</v>
@@ -3143,7 +3135,7 @@
       </c>
       <c r="E30" s="19" t="str">
         <f t="shared" si="20"/>
-        <v>0,7%</v>
+        <v>0,5%</v>
       </c>
       <c r="F30" s="26" t="str">
         <f t="shared" si="18"/>
@@ -3174,7 +3166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3230,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.98454404945904173</v>
+        <v>0.98145285935085003</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="2">
-        <v>0.61538461538461531</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="F2" s="30">
         <f>'Matriz Confusão 2'!H3</f>
@@ -3255,11 +3247,11 @@
       </c>
       <c r="I2" s="10" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Baixo</v>
       </c>
       <c r="J2" s="16" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Baixo</v>
       </c>
       <c r="K2"/>
     </row>
@@ -3305,17 +3297,17 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
-        <v>0.99072642967542501</v>
-      </c>
-      <c r="C4" s="46">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="46">
-        <v>0.57142857142857151</v>
+      <c r="B4" s="2">
+        <v>0.98918083462132922</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.46153846153846151</v>
       </c>
       <c r="F4" s="30">
         <f>'Matriz Confusão 2'!H5</f>
@@ -3335,7 +3327,7 @@
       </c>
       <c r="J4" s="16" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Baixo</v>
       </c>
       <c r="K4"/>
     </row>
@@ -3344,16 +3336,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.90417310664605877</v>
+        <v>0.90880989180834626</v>
       </c>
       <c r="C5" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="2">
-        <v>3.5087719298245612E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>6.0606060606060608E-2</v>
+        <v>0.11940298507462691</v>
       </c>
       <c r="F5" s="30">
         <f>'Matriz Confusão 2'!H6</f>
@@ -3365,7 +3357,7 @@
       </c>
       <c r="H5" s="18" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(AND(C5&lt;=1,C5&gt;=0.95),"Muito Alta",AND(C5&lt;0.95,C5&gt;=0.9),"Alta",AND(C5&lt;0.9,C5&gt;=0.7),"Boa",AND(C5&lt;0.7,C5&gt;=0.5),"Médio",AND(C5&lt;0.5,C5&gt;=0.25),"Baixo",AND(C5&lt;0.25,C5&gt;0),"Muito Baixo",C5=0,"Zero")</f>
-        <v>Muito Baixo</v>
+        <v>Baixo</v>
       </c>
       <c r="I5" s="18" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(AND(D5&lt;=1,D5&gt;=0.95),"Muito Alta",AND(D5&lt;0.95,D5&gt;=0.9),"Alta",AND(D5&lt;0.9,D5&gt;=0.7),"Boa",AND(D5&lt;0.7,D5&gt;=0.5),"Médio",AND(D5&lt;0.5,D5&gt;=0.25),"Baixo",AND(D5&lt;0.25,D5&gt;0),"Muito Baixo",D5=0,"Zero")</f>
@@ -3382,16 +3374,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.89953632148377127</v>
+        <v>0.89644513137557957</v>
       </c>
       <c r="C6" s="2">
-        <v>0.90291262135922334</v>
+        <v>0.8987138263665595</v>
       </c>
       <c r="D6" s="2">
-        <v>0.99111900532859676</v>
+        <v>0.99289520426287747</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9449618966977138</v>
+        <v>0.9434599156118143</v>
       </c>
       <c r="F6" s="30">
         <f>'Matriz Confusão 2'!H7</f>
@@ -3403,7 +3395,7 @@
       </c>
       <c r="H6" s="18" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(AND(C6&lt;=1,C6&gt;=0.95),"Muito Alta",AND(C6&lt;0.95,C6&gt;=0.9),"Alta",AND(C6&lt;0.9,C6&gt;=0.7),"Boa",AND(C6&lt;0.7,C6&gt;=0.5),"Médio",AND(C6&lt;0.5,C6&gt;=0.25),"Baixo",AND(C6&lt;0.25,C6&gt;0),"Muito Baixo",C6=0,"Zero")</f>
-        <v>Alta</v>
+        <v>Boa</v>
       </c>
       <c r="I6" s="18" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(AND(D6&lt;=1,D6&gt;=0.95),"Muito Alta",AND(D6&lt;0.95,D6&gt;=0.9),"Alta",AND(D6&lt;0.9,D6&gt;=0.7),"Boa",AND(D6&lt;0.7,D6&gt;=0.5),"Médio",AND(D6&lt;0.5,D6&gt;=0.25),"Baixo",AND(D6&lt;0.25,D6&gt;0),"Muito Baixo",D6=0,"Zero")</f>
@@ -3421,19 +3413,19 @@
       </c>
       <c r="B7" s="5">
         <f>MIN(B2:B6)</f>
-        <v>0.89953632148377127</v>
+        <v>0.89644513137557957</v>
       </c>
       <c r="C7" s="5">
         <f>MIN(C2:C6)</f>
-        <v>0.22222222222222221</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="5">
         <f>MIN(D2:D6)</f>
-        <v>3.5087719298245612E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="E7" s="5">
         <f>MIN(E2:E6)</f>
-        <v>6.0606060606060608E-2</v>
+        <v>0.11940298507462691</v>
       </c>
       <c r="G7" s="9">
         <f>COUNTIF(G2:G6,$K$7)</f>
@@ -3469,11 +3461,11 @@
       </c>
       <c r="D8" s="6">
         <f>MAX(D2:D6)</f>
-        <v>0.99111900532859676</v>
+        <v>0.99289520426287747</v>
       </c>
       <c r="E8" s="6">
         <f>MAX(E2:E6)</f>
-        <v>0.9449618966977138</v>
+        <v>0.9434599156118143</v>
       </c>
       <c r="G8" s="9">
         <f>COUNTIF(G2:G6,$K$8)</f>
@@ -3481,7 +3473,7 @@
       </c>
       <c r="H8" s="9">
         <f>COUNTIF(H2:H6,$K$8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
         <f>COUNTIF(I2:I6,$K$8)</f>
@@ -3521,7 +3513,7 @@
       </c>
       <c r="H9" s="9">
         <f>COUNTIF(H2:H6,$K$9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <f>COUNTIF(I2:I6,$K$9)</f>
@@ -3565,11 +3557,11 @@
       </c>
       <c r="I10" s="9">
         <f>COUNTIF(I2:I6,$K$10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
         <f>COUNTIF(J2:J6,$K$10)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>15</v>
@@ -3601,15 +3593,15 @@
       </c>
       <c r="H11" s="9">
         <f>COUNTIF(H2:H6,$K$11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="9">
         <f>COUNTIF(I2:I6,$K$11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="9">
         <f>COUNTIF(J2:J6,$K$11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>18</v>
@@ -3642,7 +3634,7 @@
       </c>
       <c r="H12" s="9">
         <f>COUNTIF(H2:H6,$K$12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <f>COUNTIF(I2:I6,$K$12)</f>

--- a/Resultados/Material + Ano/ResNet/Tentativa 1/Do Zero.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 1/Do Zero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F86426-3A9E-4726-ADC6-3E81184A6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D8DECE-DC0E-4FD7-98F5-B29C28F1934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -548,102 +548,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -730,6 +634,102 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1220,23 +1220,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2371,7 +2371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2380,7 +2380,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
@@ -2389,7 +2389,7 @@
     <col min="11" max="11" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="9"/>
     <col min="13" max="13" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
@@ -3166,25 +3166,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>0</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="G13">
         <f>SUM(G7:G12)+B9</f>
